--- a/xlsx/外交政策_intext.xlsx
+++ b/xlsx/外交政策_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>外交政策 (雜誌)</t>
+    <t>外交政策 (杂志)</t>
   </si>
   <si>
     <t>政策_政策_外交政策</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%A9%E7%9B%8A</t>
@@ -53,79 +53,79 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E5%89%8A</t>
   </si>
   <si>
-    <t>剝削</t>
+    <t>剥削</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%95%B7</t>
   </si>
   <si>
-    <t>外長</t>
+    <t>外长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%9D%A3</t>
   </si>
   <si>
-    <t>監督</t>
+    <t>监督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E8%AA%BC</t>
   </si>
   <si>
-    <t>友誼</t>
+    <t>友谊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC%E5%8F%B2%E8%A9%A9</t>
   </si>
   <si>
-    <t>荷馬史詩</t>
+    <t>荷马史诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀時期</t>
+    <t>中世纪时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%AF%E6%B4%9B%C2%B7%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>尼可洛·馬基維利</t>
+    <t>尼可洛·马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E5%8D%9A%E4%B8%B9</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>湯瑪斯·霍布斯</t>
+    <t>汤玛斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E9%9B%85%E5%85%8B%C2%B7%E7%9B%A7%E9%A8%B7</t>
   </si>
   <si>
-    <t>讓-雅克·盧騷</t>
+    <t>让-雅克·卢骚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國族國家</t>
+    <t>国族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%88%88%E7%89%B9%E5%88%A9%E5%B8%83%C2%B7%E8%B2%BB%E5%B8%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>約翰·戈特利布·費希特</t>
+    <t>约翰·戈特利布·费希特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%BB%91%E6%A0%BC%E5%B0%94</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>世界大戰</t>
+    <t>世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AF%86</t>
@@ -257,31 +257,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%84%E7%96%87</t>
   </si>
   <si>
-    <t>範疇</t>
+    <t>范畴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E6%91%A9%E6%A0%B9%E7%B4%A2</t>
   </si>
   <si>
-    <t>漢斯·摩根索</t>
+    <t>汉斯·摩根索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
